--- a/excel/a.xlsx
+++ b/excel/a.xlsx
@@ -8,19 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\dev\Bautura_Online_Bot\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BDAF32-6F62-493C-9516-32384DF25B48}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EE082F-98B2-42D3-8CED-2686AEBD98D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Product Title</t>
+  </si>
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Old (Slashed) Price</t>
+  </si>
   <si>
     <t>Category 1</t>
   </si>
@@ -28,22 +46,10 @@
     <t>Category 2</t>
   </si>
   <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Product ID</t>
-  </si>
-  <si>
-    <t>Product Description</t>
-  </si>
-  <si>
-    <t>Brand</t>
+    <t>Alcohol Conentration</t>
   </si>
   <si>
     <t>Image URL</t>
-  </si>
-  <si>
-    <t>Alcohol Conentration</t>
   </si>
 </sst>
 </file>
@@ -395,53 +401,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB980D44-C0C7-447F-A944-0EB9734CACE9}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="3" width="36.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="9" width="14" customWidth="1"/>
+    <col min="4" max="6" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="60.21875" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/excel/a.xlsx
+++ b/excel/a.xlsx
@@ -1,74 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\dev\Bautura_Online_Bot\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EE082F-98B2-42D3-8CED-2686AEBD98D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Product ID</t>
-  </si>
-  <si>
-    <t>Product Title</t>
-  </si>
-  <si>
-    <t>Product Description</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Old (Slashed) Price</t>
-  </si>
-  <si>
-    <t>Category 1</t>
-  </si>
-  <si>
-    <t>Category 2</t>
-  </si>
-  <si>
-    <t>Alcohol Conentration</t>
-  </si>
-  <si>
-    <t>Image URL</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,22 +54,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -401,57 +364,2715 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J680"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" customWidth="1"/>
-    <col min="4" max="6" width="19.21875" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" customWidth="1"/>
-    <col min="10" max="10" width="60.21875" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col width="12.88671875" customWidth="1" min="1" max="1"/>
+    <col width="46" customWidth="1" min="2" max="2"/>
+    <col width="36.21875" customWidth="1" min="3" max="3"/>
+    <col width="19.21875" customWidth="1" min="4" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="20.6640625" customWidth="1" min="8" max="8"/>
+    <col width="23.5546875" customWidth="1" min="9" max="9"/>
+    <col width="60.21875" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Product ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Brand</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Old (Slashed) Price</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Category 1</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Category 2</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Alcohol Conentration</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Image URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="115.2" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jim Beam - 0.7L</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            &lt;p&gt;Jim Beam Kentucky Straight Bourbon Whiskey este cel mai faimos membru al casei Beam.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Dulceata lui specifca este data de butoaiele noi si arse de stejar alb in care este invechit timp de patru ani.&lt;/p&gt;        </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jim Beam</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44,52 RON</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>63,25 RON</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>WHISKY</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Bourbon &amp; American Whisky</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://cdn.bautura-online.ro/media/catalog/product/cache/1/image/515x515/9df78eab33525d08d6e5fb8d27136e95/j/i/jim_beam_-_0.7l_bautura-online.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="409.6" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Whiskey Ezra Brooks Bourbon - 0.7L</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            &lt;p&gt;&lt;strong&gt;Ezra Brooks 80 Proof&lt;/strong&gt;&amp;nbsp;este un bourbon de cea mai bună calitate, originar din Kentucky, USA, locul în care a luat naștere bourbon-ul. Favoritul tuturor cunoscătorilor de bourbon, această sticlă nu trebuie să lipsească din barul dumneavoastră.&lt;/p&gt;
+&lt;p&gt;Acest sortiment special este realizat prin distilarea porumbului de cea mai bună calitate, alături de secară și orz atent selectate. Procesul este urmărit îndeaproape de către specialiști, distilarea făcându-se la temperaturi specifice, pentru ca rezultatul final să fie o licoare echilibrată, cu un gust fin și aromat.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;h2 dir="ltr"&gt;&lt;span&gt;Note degustare Ezra Brooks 80 Proof&lt;/span&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p dir="ltr"&gt;&lt;strong&gt;Miros:&lt;/strong&gt;&lt;span&gt; Parfumat, Ezra Brooks 80 Proof are un miros plăcut de porumb cu unt și vanilie dulce.&lt;/span&gt;&lt;/p&gt;
+&lt;p dir="ltr"&gt;&lt;span&gt;&lt;/span&gt;&lt;strong&gt;Gust:&lt;/strong&gt; Gustul este pe măsura așteptărilor - un amestec perfect între miere și vanilie, scorțișoară și note subtile de ciocolată.&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Finish:&lt;/strong&gt; Finish-ul este plăcut și aromat cu tonuri fine, florale.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Culoare:&lt;/strong&gt; Ambră&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p dir="ltr"&gt;&lt;span&gt;Vol. Alc. 40%&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;strong&gt;Producator:&lt;/strong&gt;&amp;nbsp;Heaven Hill&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Brand:&lt;/strong&gt;&amp;nbsp;Ezra Brooks&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Tara de origine:&lt;/strong&gt;&amp;nbsp;USA&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Alc.:&lt;/strong&gt;&amp;nbsp;40%&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;TVA INCLUS&lt;/strong&gt;&lt;/p&gt;        </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ezra Brooks</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59,00 RON</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>80,30 RON</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>WHISKY</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bourbon &amp; American Whisky</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>alc. 40%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://cdn.bautura-online.ro/media/catalog/product/cache/1/image/515x515/9df78eab33525d08d6e5fb8d27136e95/e/z/ezra_brooks_bourbon80p_700ml_2_.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="187.2" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jim Beam Maple - 0.7L</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            &lt;p&gt;&lt;strong&gt;Jim Beam Maple&lt;/strong&gt; este un bourbon american infuzat in aroma puternica a lemnului de artar. Maestrii in arta distilarii au creat aceasta editie limitata de Jim Beam ca un amestec echilibrat intre gustul traditonal al unui whiskey si acordurile fine, dar totusi sesizabile ale notelor lemnoase din lichiorul de artar. Rezultatul? O bautura cu un gust delicat, cu infuzii de vanilie si un finisaj placut lemnos.&amp;nbsp;&lt;/p&gt;        </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Jim Beam</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64,00 RON</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>74,75 RON</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>WHISKY</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bourbon &amp; American Whisky</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.7 litri, 35% alcool. </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://cdn.bautura-online.ro/media/catalog/product/cache/1/image/515x515/9df78eab33525d08d6e5fb8d27136e95/j/b/jb_maple.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="409.6" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1149</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ole Smoky Apple Pie - 0.5L</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            &lt;p&gt;Puţine lucruri pot fi mai americane decât plăcinta cu mere şi Moonshine-ul, de aceea decizia de a le combina pe cele două a venit ca şi ceva natural pentru cei de la Ole Smoky.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;Combinând cu măiestrie suc proaspăt de mere, scorţişoară, vanilie şi alte condimente cu cel mai autentic Moonshine ei au obţinut o băutură de concentraţie alcoolică 20% care ne duce cu gândul către serile răcoroase de vară.&lt;/p&gt;
+&lt;br&gt;
+&lt;h2&gt;Note degustare Ole Smoky Apple Pie:&lt;/h2&gt;
+&lt;br&gt;
+&lt;p&gt;Tipul băuturii: Moonshine Whiskey&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;Miros: Miros puternic de scorţişoară cu uşoare note de mere.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;Gust: Aromă de mere, scorţişoară, vanilie şi porumb.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;Finish: Dulceag&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;Culoare: Ambră&lt;/p&gt;        </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66,26 RON</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>113,85 RON</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>WHISKY</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bourbon &amp; American Whisky</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>20% Alc Vol</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://cdn.bautura-online.ro/media/catalog/product/cache/1/image/515x515/9df78eab33525d08d6e5fb8d27136e95/o/l/ole_smoky_apple_pie_bautura-online.ro.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="409.6" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fireball - 0.7L</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            Fireball este un whisky canadian aromatizat. Daca te incanta intensele arome de scortisoara alaturi de un whisky canadian de buna calitate, atunci Fireball este pentru tine. A fost premiat La Beverage Testing Institute cat si la International Review of Spirts unde  a obtinut medalia de argint.        </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fireball</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66,50 RON</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>79,35 RON</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>WHISKY</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bourbon &amp; American Whisky</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>33% alc.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://cdn.bautura-online.ro/media/catalog/product/cache/1/image/515x515/9df78eab33525d08d6e5fb8d27136e95/f/i/fireball-whisky.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="129.6" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jack Daniel'S - 0.7L</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            &lt;p&gt;Jack Daniel's este un Bourbon Whiskey si este cel mai faimos si bine vandut whisky american din lume.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Are un gust deosebit si aduce placere oriunde este savurat. Procesul de productie pentru whisky-ul Jack Daniel’s incepe cu selectia atenta a ingredientelor – porumb, secara si orz. Whisky-ul lui Jack este filtrat intr-un mod special.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Fiecarei picaturi ii trebuie aproape 24 de ore pentru a trece prin filtrul de mangal din lemn de artar, pentru a ajunge la desavarsire. El este apoi depozitat in butoaie noi de stejar alb si pus la pastrare, timp de 4 ani. Intregul proces de fabricare a whisky-ului este atent supravegheat, de la etapa de macinare la fermentare, distilare si pana la maturare si imbuteliere.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;h2&gt;Note degustare Jack Daniel's:&lt;/h2&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;&lt;strong&gt;Miros: &lt;/strong&gt;Fin, puțin dulce cu note subtile de condimente si lemn afumat.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Gust: &lt;/strong&gt;Neted, fin cu un mix de banană si caramel.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Finish:&lt;/strong&gt; Dulce, cu note de stejar.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Culoare: &lt;/strong&gt;Auriu, caramel închis.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Vol. Alc. 40%&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Producator:&lt;/strong&gt; Jack Daniel's&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Brand:&lt;/strong&gt; Jack Daniel's&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Tara de origine:&lt;/strong&gt; USA&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Alc %:&lt;/strong&gt; 40%&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;TVA INCLUS&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;div class="iframe-container"&gt;&lt;iframe frameborder="0" src="https://www.youtube.com/embed/Mr71BazsGm8?controls=0" style="width: 515px; height: 424.118px;"&gt;&lt;/iframe&gt;&lt;/div&gt;&lt;/p&gt;        </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Jack Daniel's</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73,99 RON</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>97,75 RON</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>WHISKY</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bourbon &amp; American Whisky</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>40% alc.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://cdn.bautura-online.ro/media/catalog/product/cache/1/image/515x515/9df78eab33525d08d6e5fb8d27136e95/j/a/jack_daniel_s_-_0.7l_bautura-online.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="409.6" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Buffalo Trace Bourbon - 0.7L</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            &lt;p&gt;Buffalo Trace Kentucky Straight Bourbon Whiskey este distilat, maturat si îmbuteliat la cea mai premiată distilerie din lume.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Produs din cele mai bune ingrediente (porumb, secară si malț de orz), acest whiskey este lăsat la maturat câțiva ani in butoaie noi de stejar, ținute in depozite vechi de secole, până ajunge la maturitate deplină.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Notele degustării:&lt;/p&gt;
+&lt;p&gt;Miros: Miros bogat de coji de citrice amestecat cu miere, scorțișoară si caramel. O notă subtilă și placută este cea de vanilie.&lt;/p&gt;
+&lt;p&gt;Gust: Este dat de cerealele atent culese in combinație cu caramelul si note de scorțișoară si vanilie.&lt;/p&gt;
+&lt;p&gt;Final: Nuanțele de butoi de lemn accentuate de caramel, citrice si vanilie.&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Producator: Buffalo Trace Distillery&lt;br&gt;Brand: Buffalo Trace&lt;br&gt;Tara de origine: America&lt;br&gt;Alc % 40%&lt;/p&gt;
+&lt;p&gt;&lt;div class="iframe-container"&gt;&lt;iframe frameborder="0" src="https://www.youtube.com/embed/vmBOZEnZKMw?rel=0&amp;amp;controls=0&amp;amp;showinfo=0" style="width: 515px; height: 424.118px;"&gt;&lt;/iframe&gt;&lt;/div&gt;&lt;/p&gt;        </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Buffalo Trace</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76,26 RON</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>97,75 RON</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>WHISKY</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bourbon &amp; American Whisky</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://cdn.bautura-online.ro/media/catalog/product/cache/1/image/515x515/9df78eab33525d08d6e5fb8d27136e95/b/u/buffalo_trace_bourbon_-_0.7l_bautura-online.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="409.6" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Black Velvet Reserve - 1L</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            &lt;p&gt;Black Velvet Reserve este al doilea cel mai bine vândut whisky în Canada. Ediția Reserve conține whisky învechit timp de 8 ani. Inițial, a fost denumit Black Label, dar după încheierea celui de al doilea Război Mondial, renumele texturii de catifea perceput de consumatori i-au adus denumirea de Black Velvet.&lt;/p&gt;
+&lt;p&gt;Notele degustarii: &lt;/p&gt;
+&lt;p&gt;Miros: Puternic de sirop de arțar, cu note subtile de caramel.&lt;/p&gt;
+&lt;p&gt;Gust: Dulce, datorită caramelului si zahărului brun in combinație cu siropul de arțar.&lt;/p&gt;
+&lt;p&gt;Final: Gustul este alternativ de alcool si dulce.&lt;/p&gt;
+&lt;br&gt;Producător: Constellation Brands &lt;br&gt; Brand: Black Velvet Reserve &lt;br&gt; Țara de origine: Canada &lt;br&gt; Alc: 40% &lt;br&gt; TVA INCLUS&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;        </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Black Velvet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78,04 RON</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>113,85 RON</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>WHISKY</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bourbon &amp; American Whisky</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>40% alc.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://cdn.bautura-online.ro/media/catalog/product/cache/1/image/515x515/9df78eab33525d08d6e5fb8d27136e95/b/l/black_velvet_reserve_-_1l_bautura-online.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="331.2" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ole Smoky Cherries - 0.5L</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            &lt;p&gt;Ole Smoky Cherries Moonshine vine să impresioneze cu un conţinut expresiv, atât gustativ, cât şi vizual. Cireşele maraschino au fost atent selecţionate pentru a conferi o aromă inedită băuturii.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;Băutura este combinaţia perfectă dintre comporul de cireşe al bunicii şi un whisky-ul American atât de autentic încât îşi merită pe deplin titlul de Moonshine. Este o băutură delicioasă, perfectă pentru a fi făcută cadou.&amp;nbsp;&lt;/p&gt;
+&lt;br&gt;
+&lt;h2&gt;Note degustare Ole Smoky Cherries:&lt;/h2&gt;
+&lt;br&gt;
+&lt;p&gt;Tipul băuturii: Moonshine Whiskey&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;Miros:Un parfum plăcut şi îmbietor de cireşe zemoase.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;Gust: Arome dulci şi bogate de cireşe.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;Finish: Aromat.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;Culoare: Roşu.&lt;/p&gt;        </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78,98 RON</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>132,25 RON</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>WHISKY</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bourbon &amp; American Whisky</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>50% Alc Vol</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://cdn.bautura-online.ro/media/catalog/product/cache/1/image/515x515/9df78eab33525d08d6e5fb8d27136e95/o/l/ole_smoky_cherries_bautura-online.ro.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="409.6" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jack Daniel'S - 0.7L - Cu Picurator</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            &lt;p&gt;Jack Daniel's este un Bourbon Whiskey si este cel mai faimos si bine vandut whisky american din lume.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Are un gust deosebit si aduce placere oriunde este savurat. Procesul de productie pentru whisky-ul Jack Daniel’s incepe cu selectia atenta a ingredientelor – porumb, secara si orz. Whisky-ul lui Jack este filtrat intr-un mod special.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Fiecarei picaturi ii trebuie aproape 24 de ore pentru a trece prin filtrul de mangal din lemn de artar, pentru a ajunge la desavarsire. El este apoi depozitat in butoaie noi de stejar alb si pus la pastrare, timp de 4 ani. Intregul proces de fabricare a whisky-ului este atent supravegheat, de la etapa de macinare la fermentare, distilare si pana la maturare si imbuteliere.&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;h2&gt;Note degustare Jack Daniel's:&lt;/h2&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;&lt;strong&gt;Miros: &lt;/strong&gt;Fin, puțin dulce cu note subtile de condimente si lemn afumat.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Gust: &lt;/strong&gt;Neted, fin cu un mix de banană si caramel.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Finish:&lt;/strong&gt; Dulce, cu note de stejar.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Culoare: &lt;/strong&gt;Auriu, caramel închis.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Vol. Alc. 40%&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;br&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Producator:&lt;/strong&gt; Jack Daniel's&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Brand:&lt;/strong&gt; Jack Daniel's&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Tara de origine:&lt;/strong&gt; USA&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Alc %:&lt;/strong&gt; 40%&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;TVA INCLUS&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;div class="iframe-container"&gt;&lt;iframe frameborder="0" src="https://www.youtube.com/embed/Mr71BazsGm8?controls=0" style="width: 515px; height: 424.118px;"&gt;&lt;/iframe&gt;&lt;/div&gt;&lt;/p&gt;        </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Jack Daniel's</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80,67 RON</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>102,35 RON</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>WHISKY</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bourbon &amp; American Whisky</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>40% alc.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://cdn.bautura-online.ro/media/catalog/product/cache/1/image/515x515/9df78eab33525d08d6e5fb8d27136e95/j/a/jack_daniel_s_-_0.7l_-_cu_picurator_bautura-online.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="409.6" customHeight="1">
+      <c r="C12" s="1" t="n"/>
+    </row>
+    <row r="13" ht="230.4" customHeight="1">
+      <c r="C13" s="1" t="n"/>
+    </row>
+    <row r="14" ht="273.6" customHeight="1">
+      <c r="C14" s="1" t="n"/>
+    </row>
+    <row r="15" ht="409.6" customHeight="1">
+      <c r="C15" s="1" t="n"/>
+    </row>
+    <row r="16" ht="259.2" customHeight="1">
+      <c r="C16" s="1" t="n"/>
+    </row>
+    <row r="17" ht="409.6" customHeight="1">
+      <c r="C17" s="1" t="n"/>
+    </row>
+    <row r="18" ht="409.6" customHeight="1">
+      <c r="C18" s="1" t="n"/>
+    </row>
+    <row r="19" ht="409.6" customHeight="1">
+      <c r="C19" s="1" t="n"/>
+    </row>
+    <row r="20" ht="409.6" customHeight="1">
+      <c r="C20" s="1" t="n"/>
+    </row>
+    <row r="21" ht="172.8" customHeight="1">
+      <c r="C21" s="1" t="n"/>
+    </row>
+    <row r="22" ht="158.4" customHeight="1">
+      <c r="C22" s="1" t="n"/>
+    </row>
+    <row r="23" ht="158.4" customHeight="1">
+      <c r="C23" s="1" t="n"/>
+    </row>
+    <row r="24" ht="403.2" customHeight="1">
+      <c r="C24" s="1" t="n"/>
+    </row>
+    <row r="25" ht="409.6" customHeight="1">
+      <c r="C25" s="1" t="n"/>
+    </row>
+    <row r="26" ht="144" customHeight="1">
+      <c r="C26" s="1" t="n"/>
+    </row>
+    <row r="27" ht="409.6" customHeight="1">
+      <c r="C27" s="1" t="n"/>
+    </row>
+    <row r="28" ht="187.2" customHeight="1">
+      <c r="C28" s="1" t="n"/>
+    </row>
+    <row r="29" ht="409.6" customHeight="1">
+      <c r="C29" s="1" t="n"/>
+    </row>
+    <row r="30" ht="409.6" customHeight="1">
+      <c r="C30" s="1" t="n"/>
+    </row>
+    <row r="31" ht="409.6" customHeight="1">
+      <c r="C31" s="1" t="n"/>
+    </row>
+    <row r="32" ht="409.6" customHeight="1">
+      <c r="C32" s="1" t="n"/>
+    </row>
+    <row r="33" ht="409.6" customHeight="1">
+      <c r="C33" s="1" t="n"/>
+    </row>
+    <row r="34" ht="115.2" customHeight="1">
+      <c r="C34" s="1" t="n"/>
+    </row>
+    <row r="35" ht="216" customHeight="1">
+      <c r="C35" s="1" t="n"/>
+    </row>
+    <row r="36" ht="187.2" customHeight="1">
+      <c r="C36" s="1" t="n"/>
+    </row>
+    <row r="37" ht="244.8" customHeight="1">
+      <c r="C37" s="1" t="n"/>
+    </row>
+    <row r="38" ht="409.6" customHeight="1">
+      <c r="C38" s="1" t="n"/>
+    </row>
+    <row r="39" ht="129.6" customHeight="1">
+      <c r="C39" s="1" t="n"/>
+    </row>
+    <row r="40" ht="115.2" customHeight="1">
+      <c r="C40" s="1" t="n"/>
+    </row>
+    <row r="41" ht="409.6" customHeight="1">
+      <c r="C41" s="1" t="n"/>
+    </row>
+    <row r="42" ht="115.2" customHeight="1">
+      <c r="C42" s="1" t="n"/>
+    </row>
+    <row r="43" ht="409.6" customHeight="1">
+      <c r="C43" s="1" t="n"/>
+    </row>
+    <row r="44" ht="216" customHeight="1">
+      <c r="C44" s="1" t="n"/>
+    </row>
+    <row r="45" ht="158.4" customHeight="1">
+      <c r="C45" s="1" t="n"/>
+    </row>
+    <row r="46" ht="409.6" customHeight="1">
+      <c r="C46" s="1" t="n"/>
+    </row>
+    <row r="47" ht="409.6" customHeight="1">
+      <c r="C47" s="1" t="n"/>
+    </row>
+    <row r="48" ht="201.6" customHeight="1">
+      <c r="C48" s="1" t="n"/>
+    </row>
+    <row r="49" ht="409.6" customHeight="1">
+      <c r="C49" s="1" t="n"/>
+    </row>
+    <row r="50" ht="409.6" customHeight="1">
+      <c r="C50" s="1" t="n"/>
+    </row>
+    <row r="51" ht="409.6" customHeight="1">
+      <c r="C51" s="1" t="n"/>
+    </row>
+    <row r="52" ht="409.6" customHeight="1">
+      <c r="C52" s="1" t="n"/>
+    </row>
+    <row r="53" ht="216" customHeight="1">
+      <c r="C53" s="1" t="n"/>
+    </row>
+    <row r="54" ht="409.6" customHeight="1">
+      <c r="C54" s="1" t="n"/>
+    </row>
+    <row r="55" ht="187.2" customHeight="1">
+      <c r="C55" s="1" t="n"/>
+    </row>
+    <row r="56" ht="230.4" customHeight="1">
+      <c r="C56" s="1" t="n"/>
+    </row>
+    <row r="57" ht="144" customHeight="1">
+      <c r="C57" s="1" t="n"/>
+    </row>
+    <row r="58" ht="100.8" customHeight="1">
+      <c r="C58" s="1" t="n"/>
+    </row>
+    <row r="59" ht="144" customHeight="1">
+      <c r="C59" s="1" t="n"/>
+    </row>
+    <row r="60" ht="129.6" customHeight="1">
+      <c r="C60" s="1" t="n"/>
+    </row>
+    <row r="61" ht="115.2" customHeight="1">
+      <c r="C61" s="1" t="n"/>
+    </row>
+    <row r="62" ht="144" customHeight="1">
+      <c r="C62" s="1" t="n"/>
+    </row>
+    <row r="63" ht="144" customHeight="1">
+      <c r="C63" s="1" t="n"/>
+    </row>
+    <row r="64" ht="409.6" customHeight="1">
+      <c r="C64" s="1" t="n"/>
+    </row>
+    <row r="65" ht="129.6" customHeight="1">
+      <c r="C65" s="1" t="n"/>
+    </row>
+    <row r="66" ht="409.6" customHeight="1">
+      <c r="C66" s="1" t="n"/>
+    </row>
+    <row r="67" ht="288" customHeight="1">
+      <c r="C67" s="1" t="n"/>
+    </row>
+    <row r="68" ht="409.6" customHeight="1">
+      <c r="C68" s="1" t="n"/>
+    </row>
+    <row r="69" ht="409.6" customHeight="1">
+      <c r="C69" s="1" t="n"/>
+    </row>
+    <row r="70" ht="331.2" customHeight="1">
+      <c r="C70" s="1" t="n"/>
+    </row>
+    <row r="71">
+      <c r="C71" s="1" t="n"/>
+    </row>
+    <row r="72" ht="360" customHeight="1">
+      <c r="C72" s="1" t="n"/>
+    </row>
+    <row r="73" ht="288" customHeight="1">
+      <c r="C73" s="1" t="n"/>
+    </row>
+    <row r="74" ht="409.6" customHeight="1">
+      <c r="C74" s="1" t="n"/>
+    </row>
+    <row r="75" ht="273.6" customHeight="1">
+      <c r="C75" s="1" t="n"/>
+    </row>
+    <row r="76" ht="144" customHeight="1">
+      <c r="C76" s="1" t="n"/>
+    </row>
+    <row r="77" ht="187.2" customHeight="1">
+      <c r="C77" s="1" t="n"/>
+    </row>
+    <row r="78" ht="409.6" customHeight="1">
+      <c r="C78" s="1" t="n"/>
+    </row>
+    <row r="79" ht="409.6" customHeight="1">
+      <c r="C79" s="1" t="n"/>
+    </row>
+    <row r="80" ht="409.6" customHeight="1">
+      <c r="C80" s="1" t="n"/>
+    </row>
+    <row r="81" ht="129.6" customHeight="1">
+      <c r="C81" s="1" t="n"/>
+    </row>
+    <row r="82" ht="409.6" customHeight="1">
+      <c r="C82" s="1" t="n"/>
+    </row>
+    <row r="83" ht="216" customHeight="1">
+      <c r="C83" s="1" t="n"/>
+    </row>
+    <row r="84" ht="187.2" customHeight="1">
+      <c r="C84" s="1" t="n"/>
+    </row>
+    <row r="85" ht="409.6" customHeight="1">
+      <c r="C85" s="1" t="n"/>
+    </row>
+    <row r="86" ht="158.4" customHeight="1">
+      <c r="C86" s="1" t="n"/>
+    </row>
+    <row r="87" ht="409.6" customHeight="1">
+      <c r="C87" s="1" t="n"/>
+    </row>
+    <row r="88" ht="331.2" customHeight="1">
+      <c r="C88" s="1" t="n"/>
+    </row>
+    <row r="89" ht="409.6" customHeight="1">
+      <c r="C89" s="1" t="n"/>
+    </row>
+    <row r="90" ht="409.6" customHeight="1">
+      <c r="C90" s="1" t="n"/>
+    </row>
+    <row r="91" ht="158.4" customHeight="1">
+      <c r="C91" s="1" t="n"/>
+    </row>
+    <row r="92" ht="409.6" customHeight="1">
+      <c r="C92" s="1" t="n"/>
+    </row>
+    <row r="93" ht="28.8" customHeight="1">
+      <c r="C93" s="1" t="n"/>
+    </row>
+    <row r="94" ht="409.6" customHeight="1">
+      <c r="C94" s="1" t="n"/>
+    </row>
+    <row r="95" ht="115.2" customHeight="1">
+      <c r="C95" s="1" t="n"/>
+    </row>
+    <row r="96" ht="409.6" customHeight="1">
+      <c r="C96" s="1" t="n"/>
+    </row>
+    <row r="97" ht="409.6" customHeight="1">
+      <c r="C97" s="1" t="n"/>
+    </row>
+    <row r="98" ht="409.6" customHeight="1">
+      <c r="C98" s="1" t="n"/>
+    </row>
+    <row r="99" ht="409.6" customHeight="1">
+      <c r="C99" s="1" t="n"/>
+    </row>
+    <row r="100" ht="409.6" customHeight="1">
+      <c r="C100" s="1" t="n"/>
+    </row>
+    <row r="101" ht="409.6" customHeight="1">
+      <c r="C101" s="1" t="n"/>
+    </row>
+    <row r="102" ht="409.6" customHeight="1">
+      <c r="C102" s="1" t="n"/>
+    </row>
+    <row r="103" ht="409.6" customHeight="1">
+      <c r="C103" s="1" t="n"/>
+    </row>
+    <row r="104" ht="409.6" customHeight="1">
+      <c r="C104" s="1" t="n"/>
+    </row>
+    <row r="105" ht="158.4" customHeight="1">
+      <c r="C105" s="1" t="n"/>
+    </row>
+    <row r="106" ht="28.8" customHeight="1">
+      <c r="C106" s="1" t="n"/>
+    </row>
+    <row r="107" ht="409.6" customHeight="1">
+      <c r="C107" s="1" t="n"/>
+    </row>
+    <row r="108" ht="216" customHeight="1">
+      <c r="C108" s="1" t="n"/>
+    </row>
+    <row r="109" ht="129.6" customHeight="1">
+      <c r="C109" s="1" t="n"/>
+    </row>
+    <row r="110" ht="409.6" customHeight="1">
+      <c r="C110" s="1" t="n"/>
+    </row>
+    <row r="111" ht="409.6" customHeight="1">
+      <c r="C111" s="1" t="n"/>
+    </row>
+    <row r="112" ht="129.6" customHeight="1">
+      <c r="C112" s="1" t="n"/>
+    </row>
+    <row r="113" ht="259.2" customHeight="1">
+      <c r="C113" s="1" t="n"/>
+    </row>
+    <row r="114" ht="172.8" customHeight="1">
+      <c r="C114" s="1" t="n"/>
+    </row>
+    <row r="115" ht="360" customHeight="1">
+      <c r="C115" s="1" t="n"/>
+    </row>
+    <row r="116" ht="172.8" customHeight="1">
+      <c r="C116" s="1" t="n"/>
+    </row>
+    <row r="117" ht="216" customHeight="1">
+      <c r="C117" s="1" t="n"/>
+    </row>
+    <row r="118" ht="273.6" customHeight="1">
+      <c r="C118" s="1" t="n"/>
+    </row>
+    <row r="119" ht="28.8" customHeight="1">
+      <c r="C119" s="1" t="n"/>
+    </row>
+    <row r="120" ht="259.2" customHeight="1">
+      <c r="C120" s="1" t="n"/>
+    </row>
+    <row r="121" ht="86.40000000000001" customHeight="1">
+      <c r="C121" s="1" t="n"/>
+    </row>
+    <row r="122" ht="409.6" customHeight="1">
+      <c r="C122" s="1" t="n"/>
+    </row>
+    <row r="123" ht="43.2" customHeight="1">
+      <c r="C123" s="1" t="n"/>
+    </row>
+    <row r="124" ht="187.2" customHeight="1">
+      <c r="C124" s="1" t="n"/>
+    </row>
+    <row r="125" ht="144" customHeight="1">
+      <c r="C125" s="1" t="n"/>
+    </row>
+    <row r="126" ht="144" customHeight="1">
+      <c r="C126" s="1" t="n"/>
+    </row>
+    <row r="127" ht="409.6" customHeight="1">
+      <c r="C127" s="1" t="n"/>
+    </row>
+    <row r="128" ht="409.6" customHeight="1">
+      <c r="C128" s="1" t="n"/>
+    </row>
+    <row r="129" ht="409.6" customHeight="1">
+      <c r="C129" s="1" t="n"/>
+    </row>
+    <row r="130" ht="273.6" customHeight="1">
+      <c r="C130" s="1" t="n"/>
+    </row>
+    <row r="131" ht="409.6" customHeight="1">
+      <c r="C131" s="1" t="n"/>
+    </row>
+    <row r="132" ht="259.2" customHeight="1">
+      <c r="C132" s="1" t="n"/>
+    </row>
+    <row r="133" ht="409.6" customHeight="1">
+      <c r="C133" s="1" t="n"/>
+    </row>
+    <row r="134" ht="158.4" customHeight="1">
+      <c r="C134" s="1" t="n"/>
+    </row>
+    <row r="135" ht="409.6" customHeight="1">
+      <c r="C135" s="1" t="n"/>
+    </row>
+    <row r="136" ht="409.6" customHeight="1">
+      <c r="C136" s="1" t="n"/>
+    </row>
+    <row r="137" ht="360" customHeight="1">
+      <c r="C137" s="1" t="n"/>
+    </row>
+    <row r="138" ht="409.6" customHeight="1">
+      <c r="C138" s="1" t="n"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="1" t="n"/>
+    </row>
+    <row r="140" ht="409.6" customHeight="1">
+      <c r="C140" s="1" t="n"/>
+    </row>
+    <row r="141" ht="129.6" customHeight="1">
+      <c r="C141" s="1" t="n"/>
+    </row>
+    <row r="142" ht="158.4" customHeight="1">
+      <c r="C142" s="1" t="n"/>
+    </row>
+    <row r="143" ht="86.40000000000001" customHeight="1">
+      <c r="C143" s="1" t="n"/>
+    </row>
+    <row r="144" ht="216" customHeight="1">
+      <c r="C144" s="1" t="n"/>
+    </row>
+    <row r="145" ht="403.2" customHeight="1">
+      <c r="C145" s="1" t="n"/>
+    </row>
+    <row r="146" ht="409.6" customHeight="1">
+      <c r="C146" s="1" t="n"/>
+    </row>
+    <row r="147" ht="409.6" customHeight="1">
+      <c r="C147" s="1" t="n"/>
+    </row>
+    <row r="148" ht="201.6" customHeight="1">
+      <c r="C148" s="1" t="n"/>
+    </row>
+    <row r="149" ht="244.8" customHeight="1">
+      <c r="C149" s="1" t="n"/>
+    </row>
+    <row r="150" ht="331.2" customHeight="1">
+      <c r="C150" s="1" t="n"/>
+    </row>
+    <row r="151" ht="409.6" customHeight="1">
+      <c r="C151" s="1" t="n"/>
+    </row>
+    <row r="152" ht="409.6" customHeight="1">
+      <c r="C152" s="1" t="n"/>
+    </row>
+    <row r="153" ht="409.6" customHeight="1">
+      <c r="C153" s="1" t="n"/>
+    </row>
+    <row r="154" ht="409.6" customHeight="1">
+      <c r="C154" s="1" t="n"/>
+    </row>
+    <row r="155" ht="409.6" customHeight="1">
+      <c r="C155" s="1" t="n"/>
+    </row>
+    <row r="156" ht="409.6" customHeight="1">
+      <c r="C156" s="1" t="n"/>
+    </row>
+    <row r="157" ht="409.6" customHeight="1">
+      <c r="C157" s="1" t="n"/>
+    </row>
+    <row r="158" ht="172.8" customHeight="1">
+      <c r="C158" s="1" t="n"/>
+    </row>
+    <row r="159" ht="316.8" customHeight="1">
+      <c r="C159" s="1" t="n"/>
+    </row>
+    <row r="160" ht="216" customHeight="1">
+      <c r="C160" s="1" t="n"/>
+    </row>
+    <row r="161" ht="409.6" customHeight="1">
+      <c r="C161" s="1" t="n"/>
+    </row>
+    <row r="162" ht="409.6" customHeight="1">
+      <c r="C162" s="1" t="n"/>
+    </row>
+    <row r="163" ht="409.6" customHeight="1">
+      <c r="C163" s="1" t="n"/>
+    </row>
+    <row r="164" ht="409.6" customHeight="1">
+      <c r="C164" s="1" t="n"/>
+    </row>
+    <row r="165" ht="409.6" customHeight="1">
+      <c r="C165" s="1" t="n"/>
+    </row>
+    <row r="166" ht="158.4" customHeight="1">
+      <c r="C166" s="1" t="n"/>
+    </row>
+    <row r="167" ht="409.6" customHeight="1">
+      <c r="C167" s="1" t="n"/>
+    </row>
+    <row r="168" ht="115.2" customHeight="1">
+      <c r="C168" s="1" t="n"/>
+    </row>
+    <row r="169" ht="409.6" customHeight="1">
+      <c r="C169" s="1" t="n"/>
+    </row>
+    <row r="170" ht="409.6" customHeight="1">
+      <c r="C170" s="1" t="n"/>
+    </row>
+    <row r="171" ht="331.2" customHeight="1">
+      <c r="C171" s="1" t="n"/>
+    </row>
+    <row r="172" ht="302.4" customHeight="1">
+      <c r="C172" s="1" t="n"/>
+    </row>
+    <row r="173" ht="409.6" customHeight="1">
+      <c r="C173" s="1" t="n"/>
+    </row>
+    <row r="174" ht="129.6" customHeight="1">
+      <c r="C174" s="1" t="n"/>
+    </row>
+    <row r="175" ht="409.6" customHeight="1">
+      <c r="C175" s="1" t="n"/>
+    </row>
+    <row r="176" ht="409.6" customHeight="1">
+      <c r="C176" s="1" t="n"/>
+    </row>
+    <row r="177" ht="409.6" customHeight="1">
+      <c r="C177" s="1" t="n"/>
+    </row>
+    <row r="178" ht="331.2" customHeight="1">
+      <c r="C178" s="1" t="n"/>
+    </row>
+    <row r="179" ht="100.8" customHeight="1">
+      <c r="C179" s="1" t="n"/>
+    </row>
+    <row r="180" ht="331.2" customHeight="1">
+      <c r="C180" s="1" t="n"/>
+    </row>
+    <row r="181" ht="409.6" customHeight="1">
+      <c r="C181" s="1" t="n"/>
+    </row>
+    <row r="182" ht="409.6" customHeight="1">
+      <c r="C182" s="1" t="n"/>
+    </row>
+    <row r="183" ht="216" customHeight="1">
+      <c r="C183" s="1" t="n"/>
+    </row>
+    <row r="184" ht="360" customHeight="1">
+      <c r="C184" s="1" t="n"/>
+    </row>
+    <row r="185" ht="374.4" customHeight="1">
+      <c r="C185" s="1" t="n"/>
+    </row>
+    <row r="186" ht="86.40000000000001" customHeight="1">
+      <c r="C186" s="1" t="n"/>
+    </row>
+    <row r="187" ht="288" customHeight="1">
+      <c r="C187" s="1" t="n"/>
+    </row>
+    <row r="188" ht="409.6" customHeight="1">
+      <c r="C188" s="1" t="n"/>
+    </row>
+    <row r="189" ht="100.8" customHeight="1">
+      <c r="C189" s="1" t="n"/>
+    </row>
+    <row r="190" ht="316.8" customHeight="1">
+      <c r="C190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="187.2" customHeight="1">
+      <c r="C191" s="1" t="n"/>
+    </row>
+    <row r="192" ht="230.4" customHeight="1">
+      <c r="C192" s="1" t="n"/>
+    </row>
+    <row r="193" ht="409.6" customHeight="1">
+      <c r="C193" s="1" t="n"/>
+    </row>
+    <row r="194" ht="345.6" customHeight="1">
+      <c r="C194" s="1" t="n"/>
+    </row>
+    <row r="195" ht="409.6" customHeight="1">
+      <c r="C195" s="1" t="n"/>
+    </row>
+    <row r="196" ht="409.6" customHeight="1">
+      <c r="C196" s="1" t="n"/>
+    </row>
+    <row r="197" ht="345.6" customHeight="1">
+      <c r="C197" s="1" t="n"/>
+    </row>
+    <row r="198" ht="409.6" customHeight="1">
+      <c r="C198" s="1" t="n"/>
+    </row>
+    <row r="199" ht="316.8" customHeight="1">
+      <c r="C199" s="1" t="n"/>
+    </row>
+    <row r="200" ht="345.6" customHeight="1">
+      <c r="C200" s="1" t="n"/>
+    </row>
+    <row r="201" ht="409.6" customHeight="1">
+      <c r="C201" s="1" t="n"/>
+    </row>
+    <row r="202" ht="409.6" customHeight="1">
+      <c r="C202" s="1" t="n"/>
+    </row>
+    <row r="203" ht="158.4" customHeight="1">
+      <c r="C203" s="1" t="n"/>
+    </row>
+    <row r="204" ht="409.6" customHeight="1">
+      <c r="C204" s="1" t="n"/>
+    </row>
+    <row r="205" ht="409.6" customHeight="1">
+      <c r="C205" s="1" t="n"/>
+    </row>
+    <row r="206" ht="409.6" customHeight="1">
+      <c r="C206" s="1" t="n"/>
+    </row>
+    <row r="207" ht="409.6" customHeight="1">
+      <c r="C207" s="1" t="n"/>
+    </row>
+    <row r="208" ht="409.6" customHeight="1">
+      <c r="C208" s="1" t="n"/>
+    </row>
+    <row r="209" ht="409.6" customHeight="1">
+      <c r="C209" s="1" t="n"/>
+    </row>
+    <row r="210" ht="409.6" customHeight="1">
+      <c r="C210" s="1" t="n"/>
+    </row>
+    <row r="211" ht="216" customHeight="1">
+      <c r="C211" s="1" t="n"/>
+    </row>
+    <row r="212" ht="28.8" customHeight="1">
+      <c r="C212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="409.6" customHeight="1">
+      <c r="C213" s="1" t="n"/>
+    </row>
+    <row r="214" ht="28.8" customHeight="1">
+      <c r="C214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="158.4" customHeight="1">
+      <c r="C215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="28.8" customHeight="1">
+      <c r="C216" s="1" t="n"/>
+    </row>
+    <row r="217" ht="409.6" customHeight="1">
+      <c r="C217" s="1" t="n"/>
+    </row>
+    <row r="218" ht="28.8" customHeight="1">
+      <c r="C218" s="1" t="n"/>
+    </row>
+    <row r="219" ht="172.8" customHeight="1">
+      <c r="C219" s="1" t="n"/>
+    </row>
+    <row r="220" ht="409.6" customHeight="1">
+      <c r="C220" s="1" t="n"/>
+    </row>
+    <row r="221" ht="409.6" customHeight="1">
+      <c r="C221" s="1" t="n"/>
+    </row>
+    <row r="222" ht="115.2" customHeight="1">
+      <c r="C222" s="1" t="n"/>
+    </row>
+    <row r="223" ht="388.8" customHeight="1">
+      <c r="C223" s="1" t="n"/>
+    </row>
+    <row r="224" ht="409.6" customHeight="1">
+      <c r="C224" s="1" t="n"/>
+    </row>
+    <row r="225" ht="409.6" customHeight="1">
+      <c r="C225" s="1" t="n"/>
+    </row>
+    <row r="226" ht="409.6" customHeight="1">
+      <c r="C226" s="1" t="n"/>
+    </row>
+    <row r="227" ht="28.8" customHeight="1">
+      <c r="C227" s="1" t="n"/>
+    </row>
+    <row r="228" ht="360" customHeight="1">
+      <c r="C228" s="1" t="n"/>
+    </row>
+    <row r="229" ht="409.6" customHeight="1">
+      <c r="C229" s="1" t="n"/>
+    </row>
+    <row r="230" ht="409.6" customHeight="1">
+      <c r="C230" s="1" t="n"/>
+    </row>
+    <row r="231" ht="409.6" customHeight="1">
+      <c r="C231" s="1" t="n"/>
+    </row>
+    <row r="232" ht="302.4" customHeight="1">
+      <c r="C232" s="1" t="n"/>
+    </row>
+    <row r="233" ht="302.4" customHeight="1">
+      <c r="C233" s="1" t="n"/>
+    </row>
+    <row r="234" ht="302.4" customHeight="1">
+      <c r="C234" s="1" t="n"/>
+    </row>
+    <row r="235" ht="409.6" customHeight="1">
+      <c r="C235" s="1" t="n"/>
+    </row>
+    <row r="236" ht="144" customHeight="1">
+      <c r="C236" s="1" t="n"/>
+    </row>
+    <row r="237" ht="388.8" customHeight="1">
+      <c r="C237" s="1" t="n"/>
+    </row>
+    <row r="238" ht="409.6" customHeight="1">
+      <c r="C238" s="1" t="n"/>
+    </row>
+    <row r="239" ht="409.6" customHeight="1">
+      <c r="C239" s="1" t="n"/>
+    </row>
+    <row r="240" ht="409.6" customHeight="1">
+      <c r="C240" s="1" t="n"/>
+    </row>
+    <row r="241" ht="409.6" customHeight="1">
+      <c r="C241" s="1" t="n"/>
+    </row>
+    <row r="242" ht="409.6" customHeight="1">
+      <c r="C242" s="1" t="n"/>
+    </row>
+    <row r="243" ht="302.4" customHeight="1">
+      <c r="C243" s="1" t="n"/>
+    </row>
+    <row r="244" ht="409.6" customHeight="1">
+      <c r="C244" s="1" t="n"/>
+    </row>
+    <row r="245" ht="409.6" customHeight="1">
+      <c r="C245" s="1" t="n"/>
+    </row>
+    <row r="246" ht="409.6" customHeight="1">
+      <c r="C246" s="1" t="n"/>
+    </row>
+    <row r="247" ht="409.6" customHeight="1">
+      <c r="C247" s="1" t="n"/>
+    </row>
+    <row r="248" ht="409.6" customHeight="1">
+      <c r="C248" s="1" t="n"/>
+    </row>
+    <row r="249" ht="288" customHeight="1">
+      <c r="C249" s="1" t="n"/>
+    </row>
+    <row r="250" ht="316.8" customHeight="1">
+      <c r="C250" s="1" t="n"/>
+    </row>
+    <row r="251" ht="331.2" customHeight="1">
+      <c r="C251" s="1" t="n"/>
+    </row>
+    <row r="252" ht="388.8" customHeight="1">
+      <c r="C252" s="1" t="n"/>
+    </row>
+    <row r="253" ht="216" customHeight="1">
+      <c r="C253" s="1" t="n"/>
+    </row>
+    <row r="254" ht="409.6" customHeight="1">
+      <c r="C254" s="1" t="n"/>
+    </row>
+    <row r="255" ht="409.6" customHeight="1">
+      <c r="C255" s="1" t="n"/>
+    </row>
+    <row r="256" ht="409.6" customHeight="1">
+      <c r="C256" s="1" t="n"/>
+    </row>
+    <row r="257" ht="409.6" customHeight="1">
+      <c r="C257" s="1" t="n"/>
+    </row>
+    <row r="258" ht="273.6" customHeight="1">
+      <c r="C258" s="1" t="n"/>
+    </row>
+    <row r="259" ht="409.6" customHeight="1">
+      <c r="C259" s="1" t="n"/>
+    </row>
+    <row r="260" ht="345.6" customHeight="1">
+      <c r="C260" s="1" t="n"/>
+    </row>
+    <row r="261" ht="360" customHeight="1">
+      <c r="C261" s="1" t="n"/>
+    </row>
+    <row r="262" ht="345.6" customHeight="1">
+      <c r="C262" s="1" t="n"/>
+    </row>
+    <row r="263" ht="409.6" customHeight="1">
+      <c r="C263" s="1" t="n"/>
+    </row>
+    <row r="264" ht="144" customHeight="1">
+      <c r="C264" s="1" t="n"/>
+    </row>
+    <row r="265" ht="409.6" customHeight="1">
+      <c r="C265" s="1" t="n"/>
+    </row>
+    <row r="266" ht="172.8" customHeight="1">
+      <c r="C266" s="1" t="n"/>
+    </row>
+    <row r="267" ht="409.6" customHeight="1">
+      <c r="C267" s="1" t="n"/>
+    </row>
+    <row r="268" ht="409.6" customHeight="1">
+      <c r="C268" s="1" t="n"/>
+    </row>
+    <row r="269" ht="409.6" customHeight="1">
+      <c r="C269" s="1" t="n"/>
+    </row>
+    <row r="270" ht="409.6" customHeight="1">
+      <c r="C270" s="1" t="n"/>
+    </row>
+    <row r="271" ht="409.6" customHeight="1">
+      <c r="C271" s="1" t="n"/>
+    </row>
+    <row r="272" ht="28.8" customHeight="1">
+      <c r="C272" s="1" t="n"/>
+    </row>
+    <row r="273" ht="409.6" customHeight="1">
+      <c r="C273" s="1" t="n"/>
+    </row>
+    <row r="274" ht="409.6" customHeight="1">
+      <c r="C274" s="1" t="n"/>
+    </row>
+    <row r="275" ht="409.6" customHeight="1">
+      <c r="C275" s="1" t="n"/>
+    </row>
+    <row r="276" ht="409.6" customHeight="1">
+      <c r="C276" s="1" t="n"/>
+    </row>
+    <row r="277" ht="409.6" customHeight="1">
+      <c r="C277" s="1" t="n"/>
+    </row>
+    <row r="278" ht="409.6" customHeight="1">
+      <c r="C278" s="1" t="n"/>
+    </row>
+    <row r="279" ht="409.6" customHeight="1">
+      <c r="C279" s="1" t="n"/>
+    </row>
+    <row r="280" ht="409.6" customHeight="1">
+      <c r="C280" s="1" t="n"/>
+    </row>
+    <row r="281" ht="409.6" customHeight="1">
+      <c r="C281" s="1" t="n"/>
+    </row>
+    <row r="282" ht="409.6" customHeight="1">
+      <c r="C282" s="1" t="n"/>
+    </row>
+    <row r="283" ht="409.6" customHeight="1">
+      <c r="C283" s="1" t="n"/>
+    </row>
+    <row r="284" ht="409.6" customHeight="1">
+      <c r="C284" s="1" t="n"/>
+    </row>
+    <row r="285" ht="409.6" customHeight="1">
+      <c r="C285" s="1" t="n"/>
+    </row>
+    <row r="286" ht="409.6" customHeight="1">
+      <c r="C286" s="1" t="n"/>
+    </row>
+    <row r="287" ht="409.6" customHeight="1">
+      <c r="C287" s="1" t="n"/>
+    </row>
+    <row r="288" ht="409.6" customHeight="1">
+      <c r="C288" s="1" t="n"/>
+    </row>
+    <row r="289" ht="409.6" customHeight="1">
+      <c r="C289" s="1" t="n"/>
+    </row>
+    <row r="290" ht="409.6" customHeight="1">
+      <c r="C290" s="1" t="n"/>
+    </row>
+    <row r="291" ht="409.6" customHeight="1">
+      <c r="C291" s="1" t="n"/>
+    </row>
+    <row r="292" ht="409.6" customHeight="1">
+      <c r="C292" s="1" t="n"/>
+    </row>
+    <row r="293" ht="409.6" customHeight="1">
+      <c r="C293" s="1" t="n"/>
+    </row>
+    <row r="294" ht="201.6" customHeight="1">
+      <c r="C294" s="1" t="n"/>
+    </row>
+    <row r="295" ht="86.40000000000001" customHeight="1">
+      <c r="C295" s="1" t="n"/>
+    </row>
+    <row r="296" ht="259.2" customHeight="1">
+      <c r="C296" s="1" t="n"/>
+    </row>
+    <row r="297" ht="115.2" customHeight="1">
+      <c r="C297" s="1" t="n"/>
+    </row>
+    <row r="298" ht="115.2" customHeight="1">
+      <c r="C298" s="1" t="n"/>
+    </row>
+    <row r="299" ht="115.2" customHeight="1">
+      <c r="C299" s="1" t="n"/>
+    </row>
+    <row r="300" ht="129.6" customHeight="1">
+      <c r="C300" s="1" t="n"/>
+    </row>
+    <row r="301" ht="172.8" customHeight="1">
+      <c r="C301" s="1" t="n"/>
+    </row>
+    <row r="302" ht="28.8" customHeight="1">
+      <c r="C302" s="1" t="n"/>
+    </row>
+    <row r="303" ht="158.4" customHeight="1">
+      <c r="C303" s="1" t="n"/>
+    </row>
+    <row r="304" ht="409.6" customHeight="1">
+      <c r="C304" s="1" t="n"/>
+    </row>
+    <row r="305" ht="172.8" customHeight="1">
+      <c r="C305" s="1" t="n"/>
+    </row>
+    <row r="306" ht="158.4" customHeight="1">
+      <c r="C306" s="1" t="n"/>
+    </row>
+    <row r="307" ht="216" customHeight="1">
+      <c r="C307" s="1" t="n"/>
+    </row>
+    <row r="308" ht="129.6" customHeight="1">
+      <c r="C308" s="1" t="n"/>
+    </row>
+    <row r="309" ht="129.6" customHeight="1">
+      <c r="C309" s="1" t="n"/>
+    </row>
+    <row r="310" ht="409.6" customHeight="1">
+      <c r="C310" s="1" t="n"/>
+    </row>
+    <row r="311" ht="187.2" customHeight="1">
+      <c r="C311" s="1" t="n"/>
+    </row>
+    <row r="312" ht="129.6" customHeight="1">
+      <c r="C312" s="1" t="n"/>
+    </row>
+    <row r="313" ht="158.4" customHeight="1">
+      <c r="C313" s="1" t="n"/>
+    </row>
+    <row r="314" ht="158.4" customHeight="1">
+      <c r="C314" s="1" t="n"/>
+    </row>
+    <row r="315" ht="43.2" customHeight="1">
+      <c r="C315" s="1" t="n"/>
+    </row>
+    <row r="316" ht="409.6" customHeight="1">
+      <c r="C316" s="1" t="n"/>
+    </row>
+    <row r="317" ht="129.6" customHeight="1">
+      <c r="C317" s="1" t="n"/>
+    </row>
+    <row r="318" ht="144" customHeight="1">
+      <c r="C318" s="1" t="n"/>
+    </row>
+    <row r="319" ht="158.4" customHeight="1">
+      <c r="C319" s="1" t="n"/>
+    </row>
+    <row r="320" ht="144" customHeight="1">
+      <c r="C320" s="1" t="n"/>
+    </row>
+    <row r="321" ht="100.8" customHeight="1">
+      <c r="C321" s="1" t="n"/>
+    </row>
+    <row r="322" ht="115.2" customHeight="1">
+      <c r="C322" s="1" t="n"/>
+    </row>
+    <row r="323" ht="129.6" customHeight="1">
+      <c r="C323" s="1" t="n"/>
+    </row>
+    <row r="324" ht="129.6" customHeight="1">
+      <c r="C324" s="1" t="n"/>
+    </row>
+    <row r="325" ht="57.6" customHeight="1">
+      <c r="C325" s="1" t="n"/>
+    </row>
+    <row r="326" ht="409.6" customHeight="1">
+      <c r="C326" s="1" t="n"/>
+    </row>
+    <row r="327" ht="115.2" customHeight="1">
+      <c r="C327" s="1" t="n"/>
+    </row>
+    <row r="328" ht="172.8" customHeight="1">
+      <c r="C328" s="1" t="n"/>
+    </row>
+    <row r="329" ht="374.4" customHeight="1">
+      <c r="C329" s="1" t="n"/>
+    </row>
+    <row r="330" ht="409.6" customHeight="1">
+      <c r="C330" s="1" t="n"/>
+    </row>
+    <row r="331" ht="172.8" customHeight="1">
+      <c r="C331" s="1" t="n"/>
+    </row>
+    <row r="332" ht="158.4" customHeight="1">
+      <c r="C332" s="1" t="n"/>
+    </row>
+    <row r="333" ht="144" customHeight="1">
+      <c r="C333" s="1" t="n"/>
+    </row>
+    <row r="334" ht="158.4" customHeight="1">
+      <c r="C334" s="1" t="n"/>
+    </row>
+    <row r="335" ht="129.6" customHeight="1">
+      <c r="C335" s="1" t="n"/>
+    </row>
+    <row r="336" ht="244.8" customHeight="1">
+      <c r="C336" s="1" t="n"/>
+    </row>
+    <row r="337" ht="230.4" customHeight="1">
+      <c r="C337" s="1" t="n"/>
+    </row>
+    <row r="338" ht="187.2" customHeight="1">
+      <c r="C338" s="1" t="n"/>
+    </row>
+    <row r="339" ht="201.6" customHeight="1">
+      <c r="C339" s="1" t="n"/>
+    </row>
+    <row r="340" ht="129.6" customHeight="1">
+      <c r="C340" s="1" t="n"/>
+    </row>
+    <row r="341" ht="201.6" customHeight="1">
+      <c r="C341" s="1" t="n"/>
+    </row>
+    <row r="342" ht="100.8" customHeight="1">
+      <c r="C342" s="1" t="n"/>
+    </row>
+    <row r="343" ht="409.6" customHeight="1">
+      <c r="C343" s="1" t="n"/>
+    </row>
+    <row r="344" ht="331.2" customHeight="1">
+      <c r="C344" s="1" t="n"/>
+    </row>
+    <row r="345" ht="144" customHeight="1">
+      <c r="C345" s="1" t="n"/>
+    </row>
+    <row r="346" ht="100.8" customHeight="1">
+      <c r="C346" s="1" t="n"/>
+    </row>
+    <row r="347" ht="100.8" customHeight="1">
+      <c r="C347" s="1" t="n"/>
+    </row>
+    <row r="348" ht="158.4" customHeight="1">
+      <c r="C348" s="1" t="n"/>
+    </row>
+    <row r="349" ht="172.8" customHeight="1">
+      <c r="C349" s="1" t="n"/>
+    </row>
+    <row r="350" ht="129.6" customHeight="1">
+      <c r="C350" s="1" t="n"/>
+    </row>
+    <row r="351" ht="129.6" customHeight="1">
+      <c r="C351" s="1" t="n"/>
+    </row>
+    <row r="352" ht="187.2" customHeight="1">
+      <c r="C352" s="1" t="n"/>
+    </row>
+    <row r="353" ht="100.8" customHeight="1">
+      <c r="C353" s="1" t="n"/>
+    </row>
+    <row r="354" ht="115.2" customHeight="1">
+      <c r="C354" s="1" t="n"/>
+    </row>
+    <row r="355" ht="158.4" customHeight="1">
+      <c r="C355" s="1" t="n"/>
+    </row>
+    <row r="356" ht="100.8" customHeight="1">
+      <c r="C356" s="1" t="n"/>
+    </row>
+    <row r="357" ht="129.6" customHeight="1">
+      <c r="C357" s="1" t="n"/>
+    </row>
+    <row r="358" ht="158.4" customHeight="1">
+      <c r="C358" s="1" t="n"/>
+    </row>
+    <row r="359" ht="409.6" customHeight="1">
+      <c r="C359" s="1" t="n"/>
+    </row>
+    <row r="360" ht="409.6" customHeight="1">
+      <c r="C360" s="1" t="n"/>
+    </row>
+    <row r="361" ht="115.2" customHeight="1">
+      <c r="C361" s="1" t="n"/>
+    </row>
+    <row r="362" ht="115.2" customHeight="1">
+      <c r="C362" s="1" t="n"/>
+    </row>
+    <row r="363" ht="115.2" customHeight="1">
+      <c r="C363" s="1" t="n"/>
+    </row>
+    <row r="364" ht="187.2" customHeight="1">
+      <c r="C364" s="1" t="n"/>
+    </row>
+    <row r="365" ht="129.6" customHeight="1">
+      <c r="C365" s="1" t="n"/>
+    </row>
+    <row r="366" ht="158.4" customHeight="1">
+      <c r="C366" s="1" t="n"/>
+    </row>
+    <row r="367" ht="115.2" customHeight="1">
+      <c r="C367" s="1" t="n"/>
+    </row>
+    <row r="368" ht="172.8" customHeight="1">
+      <c r="C368" s="1" t="n"/>
+    </row>
+    <row r="369" ht="172.8" customHeight="1">
+      <c r="C369" s="1" t="n"/>
+    </row>
+    <row r="370" ht="187.2" customHeight="1">
+      <c r="C370" s="1" t="n"/>
+    </row>
+    <row r="371" ht="172.8" customHeight="1">
+      <c r="C371" s="1" t="n"/>
+    </row>
+    <row r="372" ht="172.8" customHeight="1">
+      <c r="C372" s="1" t="n"/>
+    </row>
+    <row r="373" ht="129.6" customHeight="1">
+      <c r="C373" s="1" t="n"/>
+    </row>
+    <row r="374" ht="86.40000000000001" customHeight="1">
+      <c r="C374" s="1" t="n"/>
+    </row>
+    <row r="375" ht="72" customHeight="1">
+      <c r="C375" s="1" t="n"/>
+    </row>
+    <row r="376" ht="115.2" customHeight="1">
+      <c r="C376" s="1" t="n"/>
+    </row>
+    <row r="377" ht="144" customHeight="1">
+      <c r="C377" s="1" t="n"/>
+    </row>
+    <row r="378" ht="230.4" customHeight="1">
+      <c r="C378" s="1" t="n"/>
+    </row>
+    <row r="379" ht="187.2" customHeight="1">
+      <c r="C379" s="1" t="n"/>
+    </row>
+    <row r="380" ht="129.6" customHeight="1">
+      <c r="C380" s="1" t="n"/>
+    </row>
+    <row r="381" ht="187.2" customHeight="1">
+      <c r="C381" s="1" t="n"/>
+    </row>
+    <row r="382" ht="129.6" customHeight="1">
+      <c r="C382" s="1" t="n"/>
+    </row>
+    <row r="383" ht="144" customHeight="1">
+      <c r="C383" s="1" t="n"/>
+    </row>
+    <row r="384" ht="158.4" customHeight="1">
+      <c r="C384" s="1" t="n"/>
+    </row>
+    <row r="385" ht="158.4" customHeight="1">
+      <c r="C385" s="1" t="n"/>
+    </row>
+    <row r="386" ht="273.6" customHeight="1">
+      <c r="C386" s="1" t="n"/>
+    </row>
+    <row r="387" ht="187.2" customHeight="1">
+      <c r="C387" s="1" t="n"/>
+    </row>
+    <row r="388" ht="172.8" customHeight="1">
+      <c r="C388" s="1" t="n"/>
+    </row>
+    <row r="389" ht="28.8" customHeight="1">
+      <c r="C389" s="1" t="n"/>
+    </row>
+    <row r="390" ht="129.6" customHeight="1">
+      <c r="C390" s="1" t="n"/>
+    </row>
+    <row r="391" ht="100.8" customHeight="1">
+      <c r="C391" s="1" t="n"/>
+    </row>
+    <row r="392" ht="288" customHeight="1">
+      <c r="C392" s="1" t="n"/>
+    </row>
+    <row r="393" ht="216" customHeight="1">
+      <c r="C393" s="1" t="n"/>
+    </row>
+    <row r="394" ht="187.2" customHeight="1">
+      <c r="C394" s="1" t="n"/>
+    </row>
+    <row r="395" ht="172.8" customHeight="1">
+      <c r="C395" s="1" t="n"/>
+    </row>
+    <row r="396" ht="187.2" customHeight="1">
+      <c r="C396" s="1" t="n"/>
+    </row>
+    <row r="397" ht="129.6" customHeight="1">
+      <c r="C397" s="1" t="n"/>
+    </row>
+    <row r="398" ht="409.6" customHeight="1">
+      <c r="C398" s="1" t="n"/>
+    </row>
+    <row r="399" ht="409.6" customHeight="1">
+      <c r="C399" s="1" t="n"/>
+    </row>
+    <row r="400" ht="158.4" customHeight="1">
+      <c r="C400" s="1" t="n"/>
+    </row>
+    <row r="401" ht="86.40000000000001" customHeight="1">
+      <c r="C401" s="1" t="n"/>
+    </row>
+    <row r="402" ht="172.8" customHeight="1">
+      <c r="C402" s="1" t="n"/>
+    </row>
+    <row r="403" ht="158.4" customHeight="1">
+      <c r="C403" s="1" t="n"/>
+    </row>
+    <row r="404" ht="129.6" customHeight="1">
+      <c r="C404" s="1" t="n"/>
+    </row>
+    <row r="405" ht="216" customHeight="1">
+      <c r="C405" s="1" t="n"/>
+    </row>
+    <row r="406" ht="115.2" customHeight="1">
+      <c r="C406" s="1" t="n"/>
+    </row>
+    <row r="407" ht="216" customHeight="1">
+      <c r="C407" s="1" t="n"/>
+    </row>
+    <row r="408" ht="374.4" customHeight="1">
+      <c r="C408" s="1" t="n"/>
+    </row>
+    <row r="409" ht="115.2" customHeight="1">
+      <c r="C409" s="1" t="n"/>
+    </row>
+    <row r="410" ht="72" customHeight="1">
+      <c r="C410" s="1" t="n"/>
+    </row>
+    <row r="411" ht="201.6" customHeight="1">
+      <c r="C411" s="1" t="n"/>
+    </row>
+    <row r="412" ht="158.4" customHeight="1">
+      <c r="C412" s="1" t="n"/>
+    </row>
+    <row r="413" ht="158.4" customHeight="1">
+      <c r="C413" s="1" t="n"/>
+    </row>
+    <row r="414" ht="144" customHeight="1">
+      <c r="C414" s="1" t="n"/>
+    </row>
+    <row r="415" ht="115.2" customHeight="1">
+      <c r="C415" s="1" t="n"/>
+    </row>
+    <row r="416" ht="158.4" customHeight="1">
+      <c r="C416" s="1" t="n"/>
+    </row>
+    <row r="417" ht="100.8" customHeight="1">
+      <c r="C417" s="1" t="n"/>
+    </row>
+    <row r="418" ht="172.8" customHeight="1">
+      <c r="C418" s="1" t="n"/>
+    </row>
+    <row r="419" ht="115.2" customHeight="1">
+      <c r="C419" s="1" t="n"/>
+    </row>
+    <row r="420" ht="100.8" customHeight="1">
+      <c r="C420" s="1" t="n"/>
+    </row>
+    <row r="421" ht="86.40000000000001" customHeight="1">
+      <c r="C421" s="1" t="n"/>
+    </row>
+    <row r="422" ht="115.2" customHeight="1">
+      <c r="C422" s="1" t="n"/>
+    </row>
+    <row r="423" ht="172.8" customHeight="1">
+      <c r="C423" s="1" t="n"/>
+    </row>
+    <row r="424" ht="201.6" customHeight="1">
+      <c r="C424" s="1" t="n"/>
+    </row>
+    <row r="425" ht="115.2" customHeight="1">
+      <c r="C425" s="1" t="n"/>
+    </row>
+    <row r="426" ht="144" customHeight="1">
+      <c r="C426" s="1" t="n"/>
+    </row>
+    <row r="427" ht="86.40000000000001" customHeight="1">
+      <c r="C427" s="1" t="n"/>
+    </row>
+    <row r="428" ht="144" customHeight="1">
+      <c r="C428" s="1" t="n"/>
+    </row>
+    <row r="429" ht="158.4" customHeight="1">
+      <c r="C429" s="1" t="n"/>
+    </row>
+    <row r="430" ht="115.2" customHeight="1">
+      <c r="C430" s="1" t="n"/>
+    </row>
+    <row r="431" ht="409.6" customHeight="1">
+      <c r="C431" s="1" t="n"/>
+    </row>
+    <row r="432" ht="115.2" customHeight="1">
+      <c r="C432" s="1" t="n"/>
+    </row>
+    <row r="433" ht="43.2" customHeight="1">
+      <c r="C433" s="1" t="n"/>
+    </row>
+    <row r="434" ht="72" customHeight="1">
+      <c r="C434" s="1" t="n"/>
+    </row>
+    <row r="435" ht="374.4" customHeight="1">
+      <c r="C435" s="1" t="n"/>
+    </row>
+    <row r="436" ht="230.4" customHeight="1">
+      <c r="C436" s="1" t="n"/>
+    </row>
+    <row r="437" ht="158.4" customHeight="1">
+      <c r="C437" s="1" t="n"/>
+    </row>
+    <row r="438" ht="100.8" customHeight="1">
+      <c r="C438" s="1" t="n"/>
+    </row>
+    <row r="439" ht="86.40000000000001" customHeight="1">
+      <c r="C439" s="1" t="n"/>
+    </row>
+    <row r="440" ht="201.6" customHeight="1">
+      <c r="C440" s="1" t="n"/>
+    </row>
+    <row r="441" ht="115.2" customHeight="1">
+      <c r="C441" s="1" t="n"/>
+    </row>
+    <row r="442" ht="57.6" customHeight="1">
+      <c r="C442" s="1" t="n"/>
+    </row>
+    <row r="443" ht="100.8" customHeight="1">
+      <c r="C443" s="1" t="n"/>
+    </row>
+    <row r="444" ht="115.2" customHeight="1">
+      <c r="C444" s="1" t="n"/>
+    </row>
+    <row r="445" ht="144" customHeight="1">
+      <c r="C445" s="1" t="n"/>
+    </row>
+    <row r="446" ht="129.6" customHeight="1">
+      <c r="C446" s="1" t="n"/>
+    </row>
+    <row r="447" ht="201.6" customHeight="1">
+      <c r="C447" s="1" t="n"/>
+    </row>
+    <row r="448" ht="187.2" customHeight="1">
+      <c r="C448" s="1" t="n"/>
+    </row>
+    <row r="449" ht="158.4" customHeight="1">
+      <c r="C449" s="1" t="n"/>
+    </row>
+    <row r="450" ht="409.6" customHeight="1">
+      <c r="C450" s="1" t="n"/>
+    </row>
+    <row r="451" ht="409.6" customHeight="1">
+      <c r="C451" s="1" t="n"/>
+    </row>
+    <row r="452" ht="129.6" customHeight="1">
+      <c r="C452" s="1" t="n"/>
+    </row>
+    <row r="453" ht="86.40000000000001" customHeight="1">
+      <c r="C453" s="1" t="n"/>
+    </row>
+    <row r="454" ht="230.4" customHeight="1">
+      <c r="C454" s="1" t="n"/>
+    </row>
+    <row r="455" ht="216" customHeight="1">
+      <c r="C455" s="1" t="n"/>
+    </row>
+    <row r="456" ht="72" customHeight="1">
+      <c r="C456" s="1" t="n"/>
+    </row>
+    <row r="457" ht="259.2" customHeight="1">
+      <c r="C457" s="1" t="n"/>
+    </row>
+    <row r="458" ht="129.6" customHeight="1">
+      <c r="C458" s="1" t="n"/>
+    </row>
+    <row r="459" ht="144" customHeight="1">
+      <c r="C459" s="1" t="n"/>
+    </row>
+    <row r="460" ht="115.2" customHeight="1">
+      <c r="C460" s="1" t="n"/>
+    </row>
+    <row r="461" ht="144" customHeight="1">
+      <c r="C461" s="1" t="n"/>
+    </row>
+    <row r="462" ht="158.4" customHeight="1">
+      <c r="C462" s="1" t="n"/>
+    </row>
+    <row r="463" ht="129.6" customHeight="1">
+      <c r="C463" s="1" t="n"/>
+    </row>
+    <row r="464" ht="158.4" customHeight="1">
+      <c r="C464" s="1" t="n"/>
+    </row>
+    <row r="465" ht="129.6" customHeight="1">
+      <c r="C465" s="1" t="n"/>
+    </row>
+    <row r="466" ht="201.6" customHeight="1">
+      <c r="C466" s="1" t="n"/>
+    </row>
+    <row r="467" ht="115.2" customHeight="1">
+      <c r="C467" s="1" t="n"/>
+    </row>
+    <row r="468" ht="100.8" customHeight="1">
+      <c r="C468" s="1" t="n"/>
+    </row>
+    <row r="469" ht="115.2" customHeight="1">
+      <c r="C469" s="1" t="n"/>
+    </row>
+    <row r="470" ht="57.6" customHeight="1">
+      <c r="C470" s="1" t="n"/>
+    </row>
+    <row r="471" ht="187.2" customHeight="1">
+      <c r="C471" s="1" t="n"/>
+    </row>
+    <row r="472" ht="158.4" customHeight="1">
+      <c r="C472" s="1" t="n"/>
+    </row>
+    <row r="473" ht="409.6" customHeight="1">
+      <c r="C473" s="1" t="n"/>
+    </row>
+    <row r="474" ht="409.6" customHeight="1">
+      <c r="C474" s="1" t="n"/>
+    </row>
+    <row r="475" ht="409.6" customHeight="1">
+      <c r="C475" s="1" t="n"/>
+    </row>
+    <row r="476" ht="115.2" customHeight="1">
+      <c r="C476" s="1" t="n"/>
+    </row>
+    <row r="477" ht="72" customHeight="1">
+      <c r="C477" s="1" t="n"/>
+    </row>
+    <row r="478" ht="144" customHeight="1">
+      <c r="C478" s="1" t="n"/>
+    </row>
+    <row r="479" ht="100.8" customHeight="1">
+      <c r="C479" s="1" t="n"/>
+    </row>
+    <row r="480" ht="115.2" customHeight="1">
+      <c r="C480" s="1" t="n"/>
+    </row>
+    <row r="481" ht="187.2" customHeight="1">
+      <c r="C481" s="1" t="n"/>
+    </row>
+    <row r="482" ht="158.4" customHeight="1">
+      <c r="C482" s="1" t="n"/>
+    </row>
+    <row r="483" ht="316.8" customHeight="1">
+      <c r="C483" s="1" t="n"/>
+    </row>
+    <row r="484" ht="100.8" customHeight="1">
+      <c r="C484" s="1" t="n"/>
+    </row>
+    <row r="485" ht="100.8" customHeight="1">
+      <c r="C485" s="1" t="n"/>
+    </row>
+    <row r="486" ht="129.6" customHeight="1">
+      <c r="C486" s="1" t="n"/>
+    </row>
+    <row r="487" ht="409.6" customHeight="1">
+      <c r="C487" s="1" t="n"/>
+    </row>
+    <row r="488" ht="144" customHeight="1">
+      <c r="C488" s="1" t="n"/>
+    </row>
+    <row r="489" ht="158.4" customHeight="1">
+      <c r="C489" s="1" t="n"/>
+    </row>
+    <row r="490" ht="158.4" customHeight="1">
+      <c r="C490" s="1" t="n"/>
+    </row>
+    <row r="491" ht="409.6" customHeight="1">
+      <c r="C491" s="1" t="n"/>
+    </row>
+    <row r="492" ht="345.6" customHeight="1">
+      <c r="C492" s="1" t="n"/>
+    </row>
+    <row r="493" ht="187.2" customHeight="1">
+      <c r="C493" s="1" t="n"/>
+    </row>
+    <row r="494" ht="158.4" customHeight="1">
+      <c r="C494" s="1" t="n"/>
+    </row>
+    <row r="495" ht="115.2" customHeight="1">
+      <c r="C495" s="1" t="n"/>
+    </row>
+    <row r="496" ht="72" customHeight="1">
+      <c r="C496" s="1" t="n"/>
+    </row>
+    <row r="497" ht="144" customHeight="1">
+      <c r="C497" s="1" t="n"/>
+    </row>
+    <row r="498" ht="158.4" customHeight="1">
+      <c r="C498" s="1" t="n"/>
+    </row>
+    <row r="499" ht="172.8" customHeight="1">
+      <c r="C499" s="1" t="n"/>
+    </row>
+    <row r="500" ht="172.8" customHeight="1">
+      <c r="C500" s="1" t="n"/>
+    </row>
+    <row r="501" ht="144" customHeight="1">
+      <c r="C501" s="1" t="n"/>
+    </row>
+    <row r="502" ht="144" customHeight="1">
+      <c r="C502" s="1" t="n"/>
+    </row>
+    <row r="503" ht="187.2" customHeight="1">
+      <c r="C503" s="1" t="n"/>
+    </row>
+    <row r="504" ht="187.2" customHeight="1">
+      <c r="C504" s="1" t="n"/>
+    </row>
+    <row r="505" ht="244.8" customHeight="1">
+      <c r="C505" s="1" t="n"/>
+    </row>
+    <row r="506" ht="216" customHeight="1">
+      <c r="C506" s="1" t="n"/>
+    </row>
+    <row r="507" ht="57.6" customHeight="1">
+      <c r="C507" s="1" t="n"/>
+    </row>
+    <row r="508" ht="100.8" customHeight="1">
+      <c r="C508" s="1" t="n"/>
+    </row>
+    <row r="509" ht="72" customHeight="1">
+      <c r="C509" s="1" t="n"/>
+    </row>
+    <row r="510" ht="144" customHeight="1">
+      <c r="C510" s="1" t="n"/>
+    </row>
+    <row r="511" ht="144" customHeight="1">
+      <c r="C511" s="1" t="n"/>
+    </row>
+    <row r="512" ht="100.8" customHeight="1">
+      <c r="C512" s="1" t="n"/>
+    </row>
+    <row r="513" ht="158.4" customHeight="1">
+      <c r="C513" s="1" t="n"/>
+    </row>
+    <row r="514" ht="129.6" customHeight="1">
+      <c r="C514" s="1" t="n"/>
+    </row>
+    <row r="515" ht="144" customHeight="1">
+      <c r="C515" s="1" t="n"/>
+    </row>
+    <row r="516" ht="144" customHeight="1">
+      <c r="C516" s="1" t="n"/>
+    </row>
+    <row r="517" ht="144" customHeight="1">
+      <c r="C517" s="1" t="n"/>
+    </row>
+    <row r="518" ht="144" customHeight="1">
+      <c r="C518" s="1" t="n"/>
+    </row>
+    <row r="519" ht="86.40000000000001" customHeight="1">
+      <c r="C519" s="1" t="n"/>
+    </row>
+    <row r="520" ht="172.8" customHeight="1">
+      <c r="C520" s="1" t="n"/>
+    </row>
+    <row r="521" ht="158.4" customHeight="1">
+      <c r="C521" s="1" t="n"/>
+    </row>
+    <row r="522" ht="409.6" customHeight="1">
+      <c r="C522" s="1" t="n"/>
+    </row>
+    <row r="523" ht="409.6" customHeight="1">
+      <c r="C523" s="1" t="n"/>
+    </row>
+    <row r="524" ht="28.8" customHeight="1">
+      <c r="C524" s="1" t="n"/>
+    </row>
+    <row r="525" ht="158.4" customHeight="1">
+      <c r="C525" s="1" t="n"/>
+    </row>
+    <row r="526" ht="158.4" customHeight="1">
+      <c r="C526" s="1" t="n"/>
+    </row>
+    <row r="527" ht="158.4" customHeight="1">
+      <c r="C527" s="1" t="n"/>
+    </row>
+    <row r="528" ht="144" customHeight="1">
+      <c r="C528" s="1" t="n"/>
+    </row>
+    <row r="529" ht="409.6" customHeight="1">
+      <c r="C529" s="1" t="n"/>
+    </row>
+    <row r="530" ht="144" customHeight="1">
+      <c r="C530" s="1" t="n"/>
+    </row>
+    <row r="531" ht="187.2" customHeight="1">
+      <c r="C531" s="1" t="n"/>
+    </row>
+    <row r="532" ht="158.4" customHeight="1">
+      <c r="C532" s="1" t="n"/>
+    </row>
+    <row r="533" ht="158.4" customHeight="1">
+      <c r="C533" s="1" t="n"/>
+    </row>
+    <row r="534" ht="115.2" customHeight="1">
+      <c r="C534" s="1" t="n"/>
+    </row>
+    <row r="535" ht="216" customHeight="1">
+      <c r="C535" s="1" t="n"/>
+    </row>
+    <row r="536" ht="345.6" customHeight="1">
+      <c r="C536" s="1" t="n"/>
+    </row>
+    <row r="537" ht="409.6" customHeight="1">
+      <c r="C537" s="1" t="n"/>
+    </row>
+    <row r="538" ht="331.2" customHeight="1">
+      <c r="C538" s="1" t="n"/>
+    </row>
+    <row r="539" ht="144" customHeight="1">
+      <c r="C539" s="1" t="n"/>
+    </row>
+    <row r="540" ht="409.6" customHeight="1">
+      <c r="C540" s="1" t="n"/>
+    </row>
+    <row r="541" ht="115.2" customHeight="1">
+      <c r="C541" s="1" t="n"/>
+    </row>
+    <row r="542" ht="187.2" customHeight="1">
+      <c r="C542" s="1" t="n"/>
+    </row>
+    <row r="543" ht="409.6" customHeight="1">
+      <c r="C543" s="1" t="n"/>
+    </row>
+    <row r="544" ht="230.4" customHeight="1">
+      <c r="C544" s="1" t="n"/>
+    </row>
+    <row r="545" ht="129.6" customHeight="1">
+      <c r="C545" s="1" t="n"/>
+    </row>
+    <row r="546" ht="172.8" customHeight="1">
+      <c r="C546" s="1" t="n"/>
+    </row>
+    <row r="547" ht="273.6" customHeight="1">
+      <c r="C547" s="1" t="n"/>
+    </row>
+    <row r="548" ht="172.8" customHeight="1">
+      <c r="C548" s="1" t="n"/>
+    </row>
+    <row r="549" ht="86.40000000000001" customHeight="1">
+      <c r="C549" s="1" t="n"/>
+    </row>
+    <row r="550" ht="409.6" customHeight="1">
+      <c r="C550" s="1" t="n"/>
+    </row>
+    <row r="551" ht="187.2" customHeight="1">
+      <c r="C551" s="1" t="n"/>
+    </row>
+    <row r="552" ht="187.2" customHeight="1">
+      <c r="C552" s="1" t="n"/>
+    </row>
+    <row r="553" ht="158.4" customHeight="1">
+      <c r="C553" s="1" t="n"/>
+    </row>
+    <row r="554" ht="409.6" customHeight="1">
+      <c r="C554" s="1" t="n"/>
+    </row>
+    <row r="555" ht="187.2" customHeight="1">
+      <c r="C555" s="1" t="n"/>
+    </row>
+    <row r="556" ht="187.2" customHeight="1">
+      <c r="C556" s="1" t="n"/>
+    </row>
+    <row r="557" ht="86.40000000000001" customHeight="1">
+      <c r="C557" s="1" t="n"/>
+    </row>
+    <row r="558" ht="100.8" customHeight="1">
+      <c r="C558" s="1" t="n"/>
+    </row>
+    <row r="559" ht="115.2" customHeight="1">
+      <c r="C559" s="1" t="n"/>
+    </row>
+    <row r="560" ht="187.2" customHeight="1">
+      <c r="C560" s="1" t="n"/>
+    </row>
+    <row r="561" ht="115.2" customHeight="1">
+      <c r="C561" s="1" t="n"/>
+    </row>
+    <row r="562" ht="100.8" customHeight="1">
+      <c r="C562" s="1" t="n"/>
+    </row>
+    <row r="563" ht="409.6" customHeight="1">
+      <c r="C563" s="1" t="n"/>
+    </row>
+    <row r="564" ht="409.6" customHeight="1">
+      <c r="C564" s="1" t="n"/>
+    </row>
+    <row r="565" ht="115.2" customHeight="1">
+      <c r="C565" s="1" t="n"/>
+    </row>
+    <row r="566" ht="129.6" customHeight="1">
+      <c r="C566" s="1" t="n"/>
+    </row>
+    <row r="567" ht="144" customHeight="1">
+      <c r="C567" s="1" t="n"/>
+    </row>
+    <row r="568" ht="144" customHeight="1">
+      <c r="C568" s="1" t="n"/>
+    </row>
+    <row r="569" ht="316.8" customHeight="1">
+      <c r="C569" s="1" t="n"/>
+    </row>
+    <row r="570" ht="187.2" customHeight="1">
+      <c r="C570" s="1" t="n"/>
+    </row>
+    <row r="571" ht="129.6" customHeight="1">
+      <c r="C571" s="1" t="n"/>
+    </row>
+    <row r="572" ht="144" customHeight="1">
+      <c r="C572" s="1" t="n"/>
+    </row>
+    <row r="573" ht="115.2" customHeight="1">
+      <c r="C573" s="1" t="n"/>
+    </row>
+    <row r="574" ht="144" customHeight="1">
+      <c r="C574" s="1" t="n"/>
+    </row>
+    <row r="575" ht="100.8" customHeight="1">
+      <c r="C575" s="1" t="n"/>
+    </row>
+    <row r="576" ht="100.8" customHeight="1">
+      <c r="C576" s="1" t="n"/>
+    </row>
+    <row r="577" ht="86.40000000000001" customHeight="1">
+      <c r="C577" s="1" t="n"/>
+    </row>
+    <row r="578" ht="86.40000000000001" customHeight="1">
+      <c r="C578" s="1" t="n"/>
+    </row>
+    <row r="579" ht="115.2" customHeight="1">
+      <c r="C579" s="1" t="n"/>
+    </row>
+    <row r="580" ht="115.2" customHeight="1">
+      <c r="C580" s="1" t="n"/>
+    </row>
+    <row r="581" ht="115.2" customHeight="1">
+      <c r="C581" s="1" t="n"/>
+    </row>
+    <row r="582" ht="100.8" customHeight="1">
+      <c r="C582" s="1" t="n"/>
+    </row>
+    <row r="583" ht="172.8" customHeight="1">
+      <c r="C583" s="1" t="n"/>
+    </row>
+    <row r="584" ht="115.2" customHeight="1">
+      <c r="C584" s="1" t="n"/>
+    </row>
+    <row r="585" ht="100.8" customHeight="1">
+      <c r="C585" s="1" t="n"/>
+    </row>
+    <row r="586" ht="115.2" customHeight="1">
+      <c r="C586" s="1" t="n"/>
+    </row>
+    <row r="587" ht="129.6" customHeight="1">
+      <c r="C587" s="1" t="n"/>
+    </row>
+    <row r="588" ht="115.2" customHeight="1">
+      <c r="C588" s="1" t="n"/>
+    </row>
+    <row r="589" ht="158.4" customHeight="1">
+      <c r="C589" s="1" t="n"/>
+    </row>
+    <row r="590" ht="72" customHeight="1">
+      <c r="C590" s="1" t="n"/>
+    </row>
+    <row r="591" ht="115.2" customHeight="1">
+      <c r="C591" s="1" t="n"/>
+    </row>
+    <row r="592" ht="72" customHeight="1">
+      <c r="C592" s="1" t="n"/>
+    </row>
+    <row r="593" ht="129.6" customHeight="1">
+      <c r="C593" s="1" t="n"/>
+    </row>
+    <row r="594" ht="86.40000000000001" customHeight="1">
+      <c r="C594" s="1" t="n"/>
+    </row>
+    <row r="595" ht="158.4" customHeight="1">
+      <c r="C595" s="1" t="n"/>
+    </row>
+    <row r="596" ht="86.40000000000001" customHeight="1">
+      <c r="C596" s="1" t="n"/>
+    </row>
+    <row r="597" ht="115.2" customHeight="1">
+      <c r="C597" s="1" t="n"/>
+    </row>
+    <row r="598" ht="172.8" customHeight="1">
+      <c r="C598" s="1" t="n"/>
+    </row>
+    <row r="599" ht="86.40000000000001" customHeight="1">
+      <c r="C599" s="1" t="n"/>
+    </row>
+    <row r="600" ht="144" customHeight="1">
+      <c r="C600" s="1" t="n"/>
+    </row>
+    <row r="601" ht="273.6" customHeight="1">
+      <c r="C601" s="1" t="n"/>
+    </row>
+    <row r="602" ht="100.8" customHeight="1">
+      <c r="C602" s="1" t="n"/>
+    </row>
+    <row r="603" ht="144" customHeight="1">
+      <c r="C603" s="1" t="n"/>
+    </row>
+    <row r="604" ht="172.8" customHeight="1">
+      <c r="C604" s="1" t="n"/>
+    </row>
+    <row r="605" ht="259.2" customHeight="1">
+      <c r="C605" s="1" t="n"/>
+    </row>
+    <row r="606" ht="144" customHeight="1">
+      <c r="C606" s="1" t="n"/>
+    </row>
+    <row r="607" ht="129.6" customHeight="1">
+      <c r="C607" s="1" t="n"/>
+    </row>
+    <row r="608" ht="374.4" customHeight="1">
+      <c r="C608" s="1" t="n"/>
+    </row>
+    <row r="609" ht="144" customHeight="1">
+      <c r="C609" s="1" t="n"/>
+    </row>
+    <row r="610" ht="115.2" customHeight="1">
+      <c r="C610" s="1" t="n"/>
+    </row>
+    <row r="611" ht="86.40000000000001" customHeight="1">
+      <c r="C611" s="1" t="n"/>
+    </row>
+    <row r="612" ht="115.2" customHeight="1">
+      <c r="C612" s="1" t="n"/>
+    </row>
+    <row r="613" ht="115.2" customHeight="1">
+      <c r="C613" s="1" t="n"/>
+    </row>
+    <row r="614" ht="129.6" customHeight="1">
+      <c r="C614" s="1" t="n"/>
+    </row>
+    <row r="615" ht="172.8" customHeight="1">
+      <c r="C615" s="1" t="n"/>
+    </row>
+    <row r="616" ht="100.8" customHeight="1">
+      <c r="C616" s="1" t="n"/>
+    </row>
+    <row r="617" ht="144" customHeight="1">
+      <c r="C617" s="1" t="n"/>
+    </row>
+    <row r="618" ht="86.40000000000001" customHeight="1">
+      <c r="C618" s="1" t="n"/>
+    </row>
+    <row r="619" ht="409.6" customHeight="1">
+      <c r="C619" s="1" t="n"/>
+    </row>
+    <row r="620" ht="273.6" customHeight="1">
+      <c r="C620" s="1" t="n"/>
+    </row>
+    <row r="621" ht="409.6" customHeight="1">
+      <c r="C621" s="1" t="n"/>
+    </row>
+    <row r="622" ht="409.6" customHeight="1">
+      <c r="C622" s="1" t="n"/>
+    </row>
+    <row r="623" ht="216" customHeight="1">
+      <c r="C623" s="1" t="n"/>
+    </row>
+    <row r="624" ht="115.2" customHeight="1">
+      <c r="C624" s="1" t="n"/>
+    </row>
+    <row r="625" ht="409.6" customHeight="1">
+      <c r="C625" s="1" t="n"/>
+    </row>
+    <row r="626" ht="216" customHeight="1">
+      <c r="C626" s="1" t="n"/>
+    </row>
+    <row r="627" ht="374.4" customHeight="1">
+      <c r="C627" s="1" t="n"/>
+    </row>
+    <row r="628" ht="115.2" customHeight="1">
+      <c r="C628" s="1" t="n"/>
+    </row>
+    <row r="629" ht="316.8" customHeight="1">
+      <c r="C629" s="1" t="n"/>
+    </row>
+    <row r="630" ht="129.6" customHeight="1">
+      <c r="C630" s="1" t="n"/>
+    </row>
+    <row r="631" ht="316.8" customHeight="1">
+      <c r="C631" s="1" t="n"/>
+    </row>
+    <row r="632" ht="409.6" customHeight="1">
+      <c r="C632" s="1" t="n"/>
+    </row>
+    <row r="633" ht="409.6" customHeight="1">
+      <c r="C633" s="1" t="n"/>
+    </row>
+    <row r="634" ht="302.4" customHeight="1">
+      <c r="C634" s="1" t="n"/>
+    </row>
+    <row r="635" ht="409.6" customHeight="1">
+      <c r="C635" s="1" t="n"/>
+    </row>
+    <row r="636" ht="409.6" customHeight="1">
+      <c r="C636" s="1" t="n"/>
+    </row>
+    <row r="637" ht="409.6" customHeight="1">
+      <c r="C637" s="1" t="n"/>
+    </row>
+    <row r="638" ht="409.6" customHeight="1">
+      <c r="C638" s="1" t="n"/>
+    </row>
+    <row r="639" ht="100.8" customHeight="1">
+      <c r="C639" s="1" t="n"/>
+    </row>
+    <row r="640" ht="409.6" customHeight="1">
+      <c r="C640" s="1" t="n"/>
+    </row>
+    <row r="641" ht="403.2" customHeight="1">
+      <c r="C641" s="1" t="n"/>
+    </row>
+    <row r="642" ht="409.6" customHeight="1">
+      <c r="C642" s="1" t="n"/>
+    </row>
+    <row r="643" ht="144" customHeight="1">
+      <c r="C643" s="1" t="n"/>
+    </row>
+    <row r="644" ht="100.8" customHeight="1">
+      <c r="C644" s="1" t="n"/>
+    </row>
+    <row r="645" ht="409.6" customHeight="1">
+      <c r="C645" s="1" t="n"/>
+    </row>
+    <row r="646" ht="187.2" customHeight="1">
+      <c r="C646" s="1" t="n"/>
+    </row>
+    <row r="647" ht="409.6" customHeight="1">
+      <c r="C647" s="1" t="n"/>
+    </row>
+    <row r="648" ht="259.2" customHeight="1">
+      <c r="C648" s="1" t="n"/>
+    </row>
+    <row r="649" ht="409.6" customHeight="1">
+      <c r="C649" s="1" t="n"/>
+    </row>
+    <row r="650" ht="409.6" customHeight="1">
+      <c r="C650" s="1" t="n"/>
+    </row>
+    <row r="651" ht="409.6" customHeight="1">
+      <c r="C651" s="1" t="n"/>
+    </row>
+    <row r="652" ht="409.6" customHeight="1">
+      <c r="C652" s="1" t="n"/>
+    </row>
+    <row r="653" ht="158.4" customHeight="1">
+      <c r="C653" s="1" t="n"/>
+    </row>
+    <row r="654" ht="259.2" customHeight="1">
+      <c r="C654" s="1" t="n"/>
+    </row>
+    <row r="655" ht="273.6" customHeight="1">
+      <c r="C655" s="1" t="n"/>
+    </row>
+    <row r="656" ht="409.6" customHeight="1">
+      <c r="C656" s="1" t="n"/>
+    </row>
+    <row r="657" ht="409.6" customHeight="1">
+      <c r="C657" s="1" t="n"/>
+    </row>
+    <row r="658" ht="115.2" customHeight="1">
+      <c r="C658" s="1" t="n"/>
+    </row>
+    <row r="659" ht="409.6" customHeight="1">
+      <c r="C659" s="1" t="n"/>
+    </row>
+    <row r="660" ht="129.6" customHeight="1">
+      <c r="C660" s="1" t="n"/>
+    </row>
+    <row r="661" ht="100.8" customHeight="1">
+      <c r="C661" s="1" t="n"/>
+    </row>
+    <row r="662" ht="216" customHeight="1">
+      <c r="C662" s="1" t="n"/>
+    </row>
+    <row r="663" ht="129.6" customHeight="1">
+      <c r="C663" s="1" t="n"/>
+    </row>
+    <row r="664" ht="409.6" customHeight="1">
+      <c r="C664" s="1" t="n"/>
+    </row>
+    <row r="665" ht="100.8" customHeight="1">
+      <c r="C665" s="1" t="n"/>
+    </row>
+    <row r="666" ht="409.6" customHeight="1">
+      <c r="C666" s="1" t="n"/>
+    </row>
+    <row r="667" ht="187.2" customHeight="1">
+      <c r="C667" s="1" t="n"/>
+    </row>
+    <row r="668" ht="409.6" customHeight="1">
+      <c r="C668" s="1" t="n"/>
+    </row>
+    <row r="669" ht="409.6" customHeight="1">
+      <c r="C669" s="1" t="n"/>
+    </row>
+    <row r="670" ht="409.6" customHeight="1">
+      <c r="C670" s="1" t="n"/>
+    </row>
+    <row r="671" ht="409.6" customHeight="1">
+      <c r="C671" s="1" t="n"/>
+    </row>
+    <row r="672" ht="172.8" customHeight="1">
+      <c r="C672" s="1" t="n"/>
+    </row>
+    <row r="673" ht="230.4" customHeight="1">
+      <c r="C673" s="1" t="n"/>
+    </row>
+    <row r="674" ht="216" customHeight="1">
+      <c r="C674" s="1" t="n"/>
+    </row>
+    <row r="675" ht="360" customHeight="1">
+      <c r="C675" s="1" t="n"/>
+    </row>
+    <row r="676" ht="345.6" customHeight="1">
+      <c r="C676" s="1" t="n"/>
+    </row>
+    <row r="677" ht="316.8" customHeight="1">
+      <c r="C677" s="1" t="n"/>
+    </row>
+    <row r="678" ht="115.2" customHeight="1">
+      <c r="C678" s="1" t="n"/>
+    </row>
+    <row r="679" ht="115.2" customHeight="1">
+      <c r="C679" s="1" t="n"/>
+    </row>
+    <row r="680" ht="129.6" customHeight="1">
+      <c r="C680" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/a.xlsx
+++ b/excel/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\dev\Bautura_Online_Bot\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CA99C5-3B06-46C8-96BC-931803C92CCA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A3ECB2-63CE-4E4B-8794-F41496438298}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Image URL</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time Diference</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J680"/>
+  <dimension ref="A1:L680"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,9 +437,10 @@
     <col min="9" max="9" width="23.5546875" customWidth="1"/>
     <col min="10" max="10" width="60.21875" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -464,50 +471,56 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="331.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="331.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="230.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="230.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="259.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="259.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
